--- a/src/Web/UserFiles/Report/报表.xlsx
+++ b/src/Web/UserFiles/Report/报表.xlsx
@@ -16,36 +16,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
-  <si>
-    <t>车牌</t>
-  </si>
-  <si>
-    <t>车品牌</t>
-  </si>
-  <si>
-    <t>车型</t>
-  </si>
-  <si>
-    <t>起租时间</t>
-  </si>
-  <si>
-    <t>止租时间</t>
-  </si>
-  <si>
-    <t>租金</t>
-  </si>
-  <si>
-    <t>押金</t>
-  </si>
-  <si>
-    <t>经办人</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>车况</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="27">
+  <si>
+    <t>1325112032-1</t>
+  </si>
+  <si>
+    <t>从厦门到泉州</t>
+  </si>
+  <si>
+    <t>2017-04-03 00:00</t>
+  </si>
+  <si>
+    <t>福建省 泉州市 鲤城区</t>
+  </si>
+  <si>
+    <t>2017-04-04 00:00</t>
+  </si>
+  <si>
+    <t>福建省 厦门市 海沧区</t>
+  </si>
+  <si>
+    <t>2017-04-03从厦门到泉州</t>
+  </si>
+  <si>
+    <t>2017-04-02 00:00</t>
+  </si>
+  <si>
+    <t>有其他人吗</t>
+  </si>
+  <si>
+    <t>1325112032</t>
+  </si>
+  <si>
+    <t>DAKL5CZAEF</t>
+  </si>
+  <si>
+    <t>随便什么名</t>
+  </si>
+  <si>
+    <t>2017-04-18 17:45</t>
+  </si>
+  <si>
+    <t>福建省 泉州市 丰泽区</t>
+  </si>
+  <si>
+    <t>福建省 厦门市 集美区</t>
+  </si>
+  <si>
+    <t>家电及法律框架</t>
+  </si>
+  <si>
+    <t>2017-04-09 21:15</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DSMU5LBE82</t>
+  </si>
+  <si>
+    <t>喜欢音乐的进群</t>
+  </si>
+  <si>
+    <t>福建省 泉州市 洛江区</t>
+  </si>
+  <si>
+    <t>欢迎加入
+</t>
+  </si>
+  <si>
+    <t>2017-04-05 10:19</t>
+  </si>
+  <si>
+    <t>US8AZXG79E</t>
+  </si>
+  <si>
+    <t>从丰泽到海沧</t>
+  </si>
+  <si>
+    <t>2017-04-03 16:30</t>
+  </si>
+  <si>
+    <t>1325112033</t>
   </si>
 </sst>
 </file>
@@ -436,6 +488,102 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Web/UserFiles/Report/报表.xlsx
+++ b/src/Web/UserFiles/Report/报表.xlsx
@@ -16,88 +16,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="27">
-  <si>
-    <t>1325112032-1</t>
-  </si>
-  <si>
-    <t>从厦门到泉州</t>
-  </si>
-  <si>
-    <t>2017-04-03 00:00</t>
-  </si>
-  <si>
-    <t>福建省 泉州市 鲤城区</t>
-  </si>
-  <si>
-    <t>2017-04-04 00:00</t>
-  </si>
-  <si>
-    <t>福建省 厦门市 海沧区</t>
-  </si>
-  <si>
-    <t>2017-04-03从厦门到泉州</t>
-  </si>
-  <si>
-    <t>2017-04-02 00:00</t>
-  </si>
-  <si>
-    <t>有其他人吗</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="13">
   <si>
     <t>1325112032</t>
   </si>
   <si>
-    <t>DAKL5CZAEF</t>
-  </si>
-  <si>
-    <t>随便什么名</t>
-  </si>
-  <si>
-    <t>2017-04-18 17:45</t>
-  </si>
-  <si>
-    <t>福建省 泉州市 丰泽区</t>
-  </si>
-  <si>
-    <t>福建省 厦门市 集美区</t>
-  </si>
-  <si>
-    <t>家电及法律框架</t>
-  </si>
-  <si>
-    <t>2017-04-09 21:15</t>
+    <t>熊英杰</t>
+  </si>
+  <si>
+    <t>326cc5e3b1b0999de1d0f28461659627</t>
+  </si>
+  <si>
+    <t>1144166138@qq.com</t>
+  </si>
+  <si>
+    <t>15505927595</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>DSMU5LBE82</t>
-  </si>
-  <si>
-    <t>喜欢音乐的进群</t>
-  </si>
-  <si>
-    <t>福建省 泉州市 洛江区</t>
-  </si>
-  <si>
-    <t>欢迎加入
-</t>
-  </si>
-  <si>
-    <t>2017-04-05 10:19</t>
-  </si>
-  <si>
-    <t>US8AZXG79E</t>
-  </si>
-  <si>
-    <t>从丰泽到海沧</t>
-  </si>
-  <si>
-    <t>2017-04-03 16:30</t>
-  </si>
-  <si>
-    <t>1325112033</t>
+    <t>2017-04-03 10:30</t>
+  </si>
+  <si>
+    <t>GFXGXNBAFY</t>
+  </si>
+  <si>
+    <t>学院管理员</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>zhangsan</t>
+  </si>
+  <si>
+    <t>张三</t>
   </si>
 </sst>
 </file>
@@ -481,107 +438,57 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
